--- a/data/trans_orig/P2C_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>223133</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>198138</v>
+        <v>197815</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>251123</v>
+        <v>249635</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2162722316084675</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1920454523389104</v>
+        <v>0.1917326639491568</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2434018031264232</v>
+        <v>0.2419592218354784</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>340</v>
@@ -765,19 +765,19 @@
         <v>348329</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>316988</v>
+        <v>318438</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>382717</v>
+        <v>381399</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2648662040373771</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2410345445255949</v>
+        <v>0.2421377271199814</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2910147935298076</v>
+        <v>0.290012554226898</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>560</v>
@@ -786,19 +786,19 @@
         <v>571462</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>532233</v>
+        <v>534508</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>614565</v>
+        <v>613855</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.243503176318516</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2267874655797694</v>
+        <v>0.2277570532838711</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.261869575082574</v>
+        <v>0.2615673589566218</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>808590</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>780600</v>
+        <v>782088</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>833585</v>
+        <v>833908</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7837277683915325</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7565981968735768</v>
+        <v>0.7580407781645215</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8079545476610895</v>
+        <v>0.8082673360508432</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>951</v>
@@ -836,19 +836,19 @@
         <v>966784</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>932396</v>
+        <v>933714</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>998125</v>
+        <v>996675</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.735133795962623</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.708985206470192</v>
+        <v>0.709987445773102</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.758965455474405</v>
+        <v>0.7578622728800181</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1769</v>
@@ -857,19 +857,19 @@
         <v>1775373</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1732270</v>
+        <v>1732980</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1814602</v>
+        <v>1812327</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7564968236814841</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7381304249174261</v>
+        <v>0.7384326410433782</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7732125344202307</v>
+        <v>0.772242946716129</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>565256</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>527642</v>
+        <v>525450</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>605439</v>
+        <v>604506</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3337971455472035</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3115850940367023</v>
+        <v>0.3102905681567049</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3575258659931956</v>
+        <v>0.3569748498525745</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>620</v>
@@ -982,19 +982,19 @@
         <v>640247</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>600287</v>
+        <v>603656</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>676898</v>
+        <v>678829</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4032610742863684</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3780920648530249</v>
+        <v>0.3802143398211517</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4263461408104372</v>
+        <v>0.4275621104893042</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1168</v>
@@ -1003,19 +1003,19 @@
         <v>1205503</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1151216</v>
+        <v>1147492</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1260472</v>
+        <v>1258277</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3674098033357445</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3508642185110079</v>
+        <v>0.3497292986911997</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3841631555880541</v>
+        <v>0.3834941473950124</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1128157</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1087974</v>
+        <v>1088907</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1165771</v>
+        <v>1167963</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6662028544527965</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6424741340068048</v>
+        <v>0.6430251501474255</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6884149059632978</v>
+        <v>0.6897094318432954</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>934</v>
@@ -1053,19 +1053,19 @@
         <v>947426</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>910775</v>
+        <v>908844</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>987386</v>
+        <v>984017</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5967389257136316</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5736538591895629</v>
+        <v>0.5724378895106957</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6219079351469751</v>
+        <v>0.6197856601788484</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2035</v>
@@ -1074,19 +1074,19 @@
         <v>2075583</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2020614</v>
+        <v>2022809</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2129870</v>
+        <v>2133594</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6325901966642555</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6158368444119461</v>
+        <v>0.6165058526049878</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6491357814889923</v>
+        <v>0.6502707013088003</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>167044</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>144126</v>
+        <v>146278</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>188264</v>
+        <v>190020</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3029407102538086</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2613788828072699</v>
+        <v>0.2652809606095037</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3414233835431746</v>
+        <v>0.3446085900467162</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>167</v>
@@ -1199,19 +1199,19 @@
         <v>178348</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>157795</v>
+        <v>158622</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>199757</v>
+        <v>200704</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3743575112677132</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3312148206062544</v>
+        <v>0.3329521902234263</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4192953176627369</v>
+        <v>0.4212830448252044</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>327</v>
@@ -1220,19 +1220,19 @@
         <v>345392</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>316757</v>
+        <v>312479</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>374794</v>
+        <v>378236</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3360435971536573</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3081832062745852</v>
+        <v>0.3040210394585091</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3646489679542381</v>
+        <v>0.3679980488457126</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>384364</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>363144</v>
+        <v>361388</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>407282</v>
+        <v>405130</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6970592897461914</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6585766164568252</v>
+        <v>0.6553914099532837</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.73862111719273</v>
+        <v>0.7347190393904962</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>285</v>
@@ -1270,19 +1270,19 @@
         <v>298064</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>276655</v>
+        <v>275708</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>318617</v>
+        <v>317790</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6256424887322868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5807046823372631</v>
+        <v>0.578716955174795</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6687851793937456</v>
+        <v>0.6670478097765737</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>652</v>
@@ -1291,19 +1291,19 @@
         <v>682428</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>653026</v>
+        <v>649584</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>711063</v>
+        <v>715341</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6639564028463427</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6353510320457619</v>
+        <v>0.6320019511542873</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6918167937254146</v>
+        <v>0.6959789605414907</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>955433</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>904714</v>
+        <v>904918</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1005061</v>
+        <v>1013183</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2915979110211142</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2761184462465214</v>
+        <v>0.2761808669706685</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3067442804999569</v>
+        <v>0.3092231833609704</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1127</v>
@@ -1416,19 +1416,19 @@
         <v>1166924</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1111440</v>
+        <v>1111799</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1221930</v>
+        <v>1225607</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3453257670591905</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.328906436686189</v>
+        <v>0.3290128291786754</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3616037976298744</v>
+        <v>0.3626918066934735</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2055</v>
@@ -1437,19 +1437,19 @@
         <v>2122357</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2037981</v>
+        <v>2047268</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2190841</v>
+        <v>2201105</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3188761714903631</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3061989827960247</v>
+        <v>0.3075943485142042</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3291655942423995</v>
+        <v>0.3307077488160163</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2321110</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2271482</v>
+        <v>2263360</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2371829</v>
+        <v>2371625</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7084020889788859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6932557195000432</v>
+        <v>0.6907768166390297</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7238815537534786</v>
+        <v>0.7238191330293314</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2170</v>
@@ -1487,19 +1487,19 @@
         <v>2212273</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2157267</v>
+        <v>2153590</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2267757</v>
+        <v>2267398</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6546742329408095</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6383962023701257</v>
+        <v>0.6373081933065268</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.671093563313811</v>
+        <v>0.6709871708213252</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4456</v>
@@ -1508,19 +1508,19 @@
         <v>4533384</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4464900</v>
+        <v>4454636</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4617760</v>
+        <v>4608473</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6811238285096369</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6708344057576006</v>
+        <v>0.6692922511839836</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6938010172039754</v>
+        <v>0.6924056514857959</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>387440</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>356614</v>
+        <v>356585</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>417382</v>
+        <v>418920</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.397520229540624</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3658923958809401</v>
+        <v>0.3658625050867028</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.428241308259996</v>
+        <v>0.4298189463461661</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>536</v>
@@ -1872,19 +1872,19 @@
         <v>580534</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>542784</v>
+        <v>541124</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>619376</v>
+        <v>617792</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4339474827401286</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4057298516554815</v>
+        <v>0.4044888785889236</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4629819204822985</v>
+        <v>0.4617983295618812</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>894</v>
@@ -1893,19 +1893,19 @@
         <v>967974</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>920149</v>
+        <v>920239</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1017227</v>
+        <v>1017826</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4185941872920033</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3979127389196245</v>
+        <v>0.3979515130077824</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4398935564391188</v>
+        <v>0.4401525170529358</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>587203</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>557261</v>
+        <v>555723</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>618029</v>
+        <v>618058</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.602479770459376</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.571758691740004</v>
+        <v>0.5701810536538342</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6341076041190599</v>
+        <v>0.6341374949132973</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>711</v>
@@ -1943,19 +1943,19 @@
         <v>757263</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>718421</v>
+        <v>720005</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>795013</v>
+        <v>796673</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5660525172598714</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5370180795177015</v>
+        <v>0.5382016704381187</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5942701483445184</v>
+        <v>0.5955111214110764</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1261</v>
@@ -1964,19 +1964,19 @@
         <v>1344466</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1295213</v>
+        <v>1294614</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1392291</v>
+        <v>1392201</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5814058127079967</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5601064435608814</v>
+        <v>0.5598474829470643</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6020872610803756</v>
+        <v>0.6020484869922178</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>949279</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>904915</v>
+        <v>901999</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>993877</v>
+        <v>993099</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4833503267872792</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4607608522862729</v>
+        <v>0.4592761891833737</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5060584982257376</v>
+        <v>0.5056621834172006</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>955</v>
@@ -2089,19 +2089,19 @@
         <v>1019076</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>972572</v>
+        <v>976399</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1060780</v>
+        <v>1061273</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5797440197881611</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5532882984843087</v>
+        <v>0.5554654995581229</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.603469150856751</v>
+        <v>0.6037497052719292</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1860</v>
@@ -2110,19 +2110,19 @@
         <v>1968355</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1905327</v>
+        <v>1908922</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2034965</v>
+        <v>2033572</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5288774663434659</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5119423396233339</v>
+        <v>0.5129084209852327</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5467749167747715</v>
+        <v>0.5464007258843795</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1014678</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>970080</v>
+        <v>970858</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1059042</v>
+        <v>1061958</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5166496732127208</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4939415017742624</v>
+        <v>0.4943378165827994</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5392391477137271</v>
+        <v>0.5407238108166263</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>680</v>
@@ -2160,19 +2160,19 @@
         <v>738727</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>697023</v>
+        <v>696530</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>785231</v>
+        <v>781404</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4202559802118389</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3965308491432489</v>
+        <v>0.3962502947280708</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4467117015156912</v>
+        <v>0.4445345004418772</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1631</v>
@@ -2181,19 +2181,19 @@
         <v>1753405</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1686795</v>
+        <v>1688188</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1816433</v>
+        <v>1812838</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4711225336565341</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4532250832252284</v>
+        <v>0.4535992741156205</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4880576603766661</v>
+        <v>0.4870915790147673</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>195287</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>172182</v>
+        <v>173228</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>219110</v>
+        <v>218373</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4058501453538709</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3578312516984115</v>
+        <v>0.3600066555936349</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4553598251903708</v>
+        <v>0.4538274180052369</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>214</v>
@@ -2306,19 +2306,19 @@
         <v>234067</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>211355</v>
+        <v>210753</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>257046</v>
+        <v>257190</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5103600430976312</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4608388164802259</v>
+        <v>0.4595263041308748</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5604639322682148</v>
+        <v>0.5607777507430058</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>392</v>
@@ -2327,19 +2327,19 @@
         <v>429355</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>398055</v>
+        <v>397423</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>461369</v>
+        <v>461439</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.456851261832171</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4235467631808501</v>
+        <v>0.4228740554342229</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4909158530801053</v>
+        <v>0.4909907347181792</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>285894</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>262071</v>
+        <v>262808</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>308999</v>
+        <v>307953</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5941498546461291</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5446401748096292</v>
+        <v>0.5461725819947632</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6421687483015884</v>
+        <v>0.6399933444063651</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>198</v>
@@ -2377,19 +2377,19 @@
         <v>224564</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>201585</v>
+        <v>201441</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>247276</v>
+        <v>247878</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4896399569023688</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4395360677317853</v>
+        <v>0.4392222492569941</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5391611835197742</v>
+        <v>0.5404736958691252</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>458</v>
@@ -2398,19 +2398,19 @@
         <v>510458</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>478444</v>
+        <v>478374</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>541758</v>
+        <v>542390</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.543148738167829</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5090841469198946</v>
+        <v>0.5090092652818208</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5764532368191498</v>
+        <v>0.5771259445657773</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>1532007</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1472513</v>
+        <v>1470245</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1590622</v>
+        <v>1592763</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4479839325951614</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4305868082255414</v>
+        <v>0.4299236657757272</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4651237397395942</v>
+        <v>0.465749899557654</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1705</v>
@@ -2523,19 +2523,19 @@
         <v>1833676</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1772083</v>
+        <v>1772984</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1896768</v>
+        <v>1896177</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5159136729036284</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4985842130579515</v>
+        <v>0.4988377819805886</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5336648682986649</v>
+        <v>0.533498546576291</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3146</v>
@@ -2544,19 +2544,19 @@
         <v>3365683</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3276568</v>
+        <v>3266731</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3446748</v>
+        <v>3444663</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4826035942361668</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4698253850296932</v>
+        <v>0.4684149161424504</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4942274914185124</v>
+        <v>0.493928491229856</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>1887775</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1829160</v>
+        <v>1827019</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1947269</v>
+        <v>1949537</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5520160674048386</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5348762602604059</v>
+        <v>0.5342501004423461</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5694131917744587</v>
+        <v>0.5700763342242727</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1589</v>
@@ -2594,19 +2594,19 @@
         <v>1720554</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1657462</v>
+        <v>1658053</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1782147</v>
+        <v>1781246</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4840863270963716</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4663351317013352</v>
+        <v>0.466501453423709</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5014157869420485</v>
+        <v>0.5011622180194114</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3350</v>
@@ -2615,19 +2615,19 @@
         <v>3608329</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3527264</v>
+        <v>3529349</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3697444</v>
+        <v>3707281</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5173964057638333</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5057725085814877</v>
+        <v>0.506071508770144</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5301746149703068</v>
+        <v>0.5315850838575495</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>210411</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>186673</v>
+        <v>185885</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>235181</v>
+        <v>236234</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2789308928109077</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.247463406622848</v>
+        <v>0.2464178086539702</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3117676074405816</v>
+        <v>0.3131634719927525</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>302</v>
@@ -2979,19 +2979,19 @@
         <v>336423</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>307247</v>
+        <v>304057</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>368145</v>
+        <v>366322</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3382295515616882</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3088964284804711</v>
+        <v>0.305689856612261</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3701216608461773</v>
+        <v>0.368288316205552</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>515</v>
@@ -3000,19 +3000,19 @@
         <v>546834</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>505836</v>
+        <v>510992</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>586132</v>
+        <v>585595</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.312654037329325</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2892134607232479</v>
+        <v>0.2921613080139789</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3351228811671711</v>
+        <v>0.3348158606313699</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>543936</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>519166</v>
+        <v>518113</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>567674</v>
+        <v>568462</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7210691071890923</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6882323925594185</v>
+        <v>0.6868365280072475</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7525365933771521</v>
+        <v>0.7535821913460298</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>590</v>
@@ -3050,19 +3050,19 @@
         <v>658237</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>626515</v>
+        <v>628338</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>687413</v>
+        <v>690603</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6617704484383118</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6298783391538229</v>
+        <v>0.6317116837944483</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6911035715195288</v>
+        <v>0.6943101433877394</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1139</v>
@@ -3071,19 +3071,19 @@
         <v>1202173</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1162875</v>
+        <v>1163412</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1243171</v>
+        <v>1238015</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.687345962670675</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.664877118832829</v>
+        <v>0.6651841393686304</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7107865392767522</v>
+        <v>0.7078386919860211</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>677979</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>633453</v>
+        <v>629434</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>719784</v>
+        <v>720007</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.326518725337101</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3050747483819098</v>
+        <v>0.3031391523590505</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3466523265472589</v>
+        <v>0.3467599918430381</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>796</v>
@@ -3196,19 +3196,19 @@
         <v>811117</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>761631</v>
+        <v>768062</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>851193</v>
+        <v>862347</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4079452008564601</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3830562954983728</v>
+        <v>0.3862907749254419</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4281010771379178</v>
+        <v>0.4337104567588037</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1436</v>
@@ -3217,19 +3217,19 @@
         <v>1489096</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1431848</v>
+        <v>1426808</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1553190</v>
+        <v>1551123</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3663496754218252</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3522653470172085</v>
+        <v>0.3510254360041043</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3821182298037812</v>
+        <v>0.381609766315109</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1398406</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1356601</v>
+        <v>1356378</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1442932</v>
+        <v>1446951</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.673481274662899</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.653347673452741</v>
+        <v>0.6532400081569618</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6949252516180902</v>
+        <v>0.6968608476409495</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1112</v>
@@ -3267,19 +3267,19 @@
         <v>1177183</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1137107</v>
+        <v>1125953</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1226669</v>
+        <v>1220238</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5920547991435399</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5718989228620821</v>
+        <v>0.5662895432411963</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6169437045016272</v>
+        <v>0.6137092250745581</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2424</v>
@@ -3288,19 +3288,19 @@
         <v>2575589</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2511495</v>
+        <v>2513562</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2632837</v>
+        <v>2637877</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6336503245781748</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6178817701962186</v>
+        <v>0.618390233684891</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6477346529827914</v>
+        <v>0.6489745639958957</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>168745</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>147456</v>
+        <v>146525</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191076</v>
+        <v>191859</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3085566548829197</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2696283078379677</v>
+        <v>0.267925364538254</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3493889195353155</v>
+        <v>0.3508202079998551</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>216</v>
@@ -3413,19 +3413,19 @@
         <v>224023</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>199897</v>
+        <v>201283</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>249632</v>
+        <v>248820</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4079529737348209</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3640174417041145</v>
+        <v>0.3665426896074815</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4545862917571071</v>
+        <v>0.4531084268780977</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>369</v>
@@ -3434,19 +3434,19 @@
         <v>392769</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>362309</v>
+        <v>360692</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>427348</v>
+        <v>425281</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.358357026035828</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3305654659521498</v>
+        <v>0.3290903766652685</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3899060440557648</v>
+        <v>0.3880202436181389</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>378141</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>355810</v>
+        <v>355027</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>399430</v>
+        <v>400361</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6914433451170804</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6506110804646845</v>
+        <v>0.6491797920001449</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7303716921620323</v>
+        <v>0.7320746354617467</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>310</v>
@@ -3484,19 +3484,19 @@
         <v>325117</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>299508</v>
+        <v>300320</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>349243</v>
+        <v>347857</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5920470262651791</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5454137082428931</v>
+        <v>0.5468915731219024</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6359825582958855</v>
+        <v>0.6334573103925184</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>658</v>
@@ -3505,19 +3505,19 @@
         <v>703258</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>668679</v>
+        <v>670746</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>733718</v>
+        <v>735335</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.641642973964172</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6100939559442351</v>
+        <v>0.6119797563818611</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6694345340478502</v>
+        <v>0.6709096233347317</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>1057135</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1003669</v>
+        <v>999401</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1113771</v>
+        <v>1109676</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3129822807569415</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.297153012663038</v>
+        <v>0.2958893615305063</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3297504949951489</v>
+        <v>0.3285379834089807</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1314</v>
@@ -3630,19 +3630,19 @@
         <v>1371564</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1307590</v>
+        <v>1312686</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1427377</v>
+        <v>1441369</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3883140745361912</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3702019311971719</v>
+        <v>0.3716446120052599</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.404115727568657</v>
+        <v>0.4080770615633103</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2320</v>
@@ -3651,19 +3651,19 @@
         <v>2428699</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2345042</v>
+        <v>2341808</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2510215</v>
+        <v>2501366</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3514902853758186</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3393831155931243</v>
+        <v>0.3389150827122644</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3632875574461357</v>
+        <v>0.3620069832999336</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2320483</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2263847</v>
+        <v>2267942</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2373949</v>
+        <v>2378217</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6870177192430585</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.670249505004851</v>
+        <v>0.6714620165910193</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7028469873369618</v>
+        <v>0.7041106384694937</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2012</v>
@@ -3701,19 +3701,19 @@
         <v>2160536</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2104723</v>
+        <v>2090731</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2224510</v>
+        <v>2219414</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6116859254638088</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.595884272431343</v>
+        <v>0.5919229384366897</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6297980688028282</v>
+        <v>0.6283553879947407</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4221</v>
@@ -3722,19 +3722,19 @@
         <v>4481019</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4399503</v>
+        <v>4408352</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4564676</v>
+        <v>4567910</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6485097146241814</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6367124425538644</v>
+        <v>0.6379930167000667</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6606168844068758</v>
+        <v>0.6610849172877357</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>99437</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>84496</v>
+        <v>84289</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>117347</v>
+        <v>117687</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1718795065234041</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1460526879376714</v>
+        <v>0.145694951668379</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2028366175092704</v>
+        <v>0.2034245582556746</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>387</v>
@@ -4086,19 +4086,19 @@
         <v>218637</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>199410</v>
+        <v>199194</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>240837</v>
+        <v>239141</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2659696692808192</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2425805244142313</v>
+        <v>0.2423172800010537</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.292975655896174</v>
+        <v>0.2909119522776669</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>521</v>
@@ -4107,19 +4107,19 @@
         <v>318074</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>291648</v>
+        <v>289934</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>343010</v>
+        <v>343150</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2271040413649514</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2082357059643227</v>
+        <v>0.2070115439933367</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2449078959509345</v>
+        <v>0.2450081424100078</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>479092</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>461182</v>
+        <v>460842</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>494033</v>
+        <v>494240</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8281204934765959</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7971633824907297</v>
+        <v>0.7965754417443255</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8539473120623285</v>
+        <v>0.8543050483316209</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1040</v>
@@ -4157,19 +4157,19 @@
         <v>603401</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>581201</v>
+        <v>582897</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>622628</v>
+        <v>622844</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7340303307191808</v>
+        <v>0.7340303307191809</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7070243441038259</v>
+        <v>0.709088047722333</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7574194755857687</v>
+        <v>0.7576827199989463</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1597</v>
@@ -4178,19 +4178,19 @@
         <v>1082493</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1057557</v>
+        <v>1057417</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1108919</v>
+        <v>1110633</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7728959586350487</v>
+        <v>0.7728959586350486</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7550921040490656</v>
+        <v>0.7549918575899925</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7917642940356776</v>
+        <v>0.7929884560066635</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>301773</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>267463</v>
+        <v>268254</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>341078</v>
+        <v>343750</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1352897463888955</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1199081657627338</v>
+        <v>0.1202627229446908</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1529108560176071</v>
+        <v>0.1541088081027586</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>457</v>
@@ -4303,19 +4303,19 @@
         <v>368474</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>337350</v>
+        <v>333431</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>404302</v>
+        <v>399586</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1696949604047017</v>
+        <v>0.1696949604047016</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1553610486330881</v>
+        <v>0.1535564013640528</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.186194674713961</v>
+        <v>0.1840228353102677</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>727</v>
@@ -4324,19 +4324,19 @@
         <v>670247</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>616611</v>
+        <v>624017</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>720469</v>
+        <v>722559</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1522611038541948</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.140076513044542</v>
+        <v>0.1417589565312004</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1636700795578218</v>
+        <v>0.1641448569213131</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1928793</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1889488</v>
+        <v>1886816</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1963103</v>
+        <v>1962312</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8647102536111047</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8470891439823933</v>
+        <v>0.845891191897241</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8800918342372662</v>
+        <v>0.8797372770553089</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2464</v>
@@ -4374,19 +4374,19 @@
         <v>1802918</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1767090</v>
+        <v>1771806</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1834042</v>
+        <v>1837961</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8303050395952984</v>
+        <v>0.8303050395952982</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8138053252860391</v>
+        <v>0.8159771646897325</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8446389513669119</v>
+        <v>0.8464435986359472</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4186</v>
@@ -4395,19 +4395,19 @@
         <v>3731712</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3681490</v>
+        <v>3679400</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3785348</v>
+        <v>3777942</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8477388961458051</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8363299204421782</v>
+        <v>0.8358551430786869</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8599234869554584</v>
+        <v>0.8582410434687996</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>76797</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60231</v>
+        <v>59662</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>100608</v>
+        <v>100208</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1079235931629672</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08464382907554475</v>
+        <v>0.08384411179176253</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1413854525273544</v>
+        <v>0.1408228733831415</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>114</v>
@@ -4520,19 +4520,19 @@
         <v>85974</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>71473</v>
+        <v>71722</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102827</v>
+        <v>103013</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1169910976445552</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09725830567573784</v>
+        <v>0.09759760063144156</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1399237802247519</v>
+        <v>0.1401768299639276</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -4541,19 +4541,19 @@
         <v>162771</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>138583</v>
+        <v>141337</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>190309</v>
+        <v>188574</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.112530345630141</v>
+        <v>0.1125303456301409</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09580831829319454</v>
+        <v>0.09771210715560404</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.131568496100719</v>
+        <v>0.1303689511979805</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>634790</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>610979</v>
+        <v>611379</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>651356</v>
+        <v>651925</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8920764068370328</v>
+        <v>0.8920764068370327</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8586145474726453</v>
+        <v>0.8591771266168584</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.915356170924455</v>
+        <v>0.9161558882082375</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>890</v>
@@ -4591,19 +4591,19 @@
         <v>648903</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>632050</v>
+        <v>631864</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>663404</v>
+        <v>663155</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8830089023554446</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8600762197752481</v>
+        <v>0.8598231700360723</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9027416943242619</v>
+        <v>0.9024023993685585</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1507</v>
@@ -4612,19 +4612,19 @@
         <v>1283693</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1256155</v>
+        <v>1257890</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1307881</v>
+        <v>1305127</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8874696543698591</v>
+        <v>0.8874696543698588</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8684315038992808</v>
+        <v>0.8696310488020195</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9041916817068054</v>
+        <v>0.902287892844396</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>478007</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>431779</v>
+        <v>435423</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>523834</v>
+        <v>525453</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1357711452103655</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1226405989195434</v>
+        <v>0.1236756589069492</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.148787548921795</v>
+        <v>0.149247546091737</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>958</v>
@@ -4737,19 +4737,19 @@
         <v>673085</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>632128</v>
+        <v>637848</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>711831</v>
+        <v>719614</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1805338160757084</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1695481710782355</v>
+        <v>0.1710824335622748</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1909261407108414</v>
+        <v>0.1930136769808624</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1426</v>
@@ -4758,19 +4758,19 @@
         <v>1151093</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1094133</v>
+        <v>1093165</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1213887</v>
+        <v>1219008</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1587935234762937</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.150935868767806</v>
+        <v>0.1508023747074113</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1674560215291885</v>
+        <v>0.1681624189143756</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3042676</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2996849</v>
+        <v>2995230</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3088904</v>
+        <v>3085260</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8642288547896344</v>
+        <v>0.8642288547896345</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8512124510782049</v>
+        <v>0.8507524539082629</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8773594010804562</v>
+        <v>0.8763243410930508</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4394</v>
@@ -4808,19 +4808,19 @@
         <v>3055222</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3016476</v>
+        <v>3008693</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3096179</v>
+        <v>3090459</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8194661839242916</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8090738592891585</v>
+        <v>0.8069863230191375</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8304518289217644</v>
+        <v>0.8289175664377255</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7290</v>
@@ -4829,19 +4829,19 @@
         <v>6097897</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6035103</v>
+        <v>6029982</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6154857</v>
+        <v>6155825</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8412064765237063</v>
+        <v>0.8412064765237064</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8325439784708115</v>
+        <v>0.8318375810856243</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8490641312321943</v>
+        <v>0.8491976252925886</v>
       </c>
     </row>
     <row r="15">
